--- a/outputs-HGR-r202/test-o__RFN20_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__RFN20_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Row</t>
   </si>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,14 +128,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,27 +161,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -197,7 +201,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -217,7 +221,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -237,7 +241,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -257,7 +261,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -277,7 +281,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -297,280 +301,280 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.98701460444739264</v>
+        <v>0.96591325548154072</v>
       </c>
       <c r="C8">
-        <v>0.010374805305813582</v>
+        <v>0.020858956688278071</v>
       </c>
       <c r="D8">
-        <v>0.0022221942236138274</v>
+        <v>0.013216415117169892</v>
       </c>
       <c r="E8">
-        <v>0.00038839602318002295</v>
+        <v>1.1372713011168881e-05</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.96591325548154072</v>
+        <v>0.88075347817573191</v>
       </c>
       <c r="C9">
-        <v>0.020858956688278071</v>
+        <v>0.00010459372483973636</v>
       </c>
       <c r="D9">
-        <v>0.013216415117169892</v>
+        <v>0.00010330120145183082</v>
       </c>
       <c r="E9">
-        <v>1.1372713011168881e-05</v>
+        <v>0.11903862689797652</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.88075347817573191</v>
+        <v>0.0011556921458902697</v>
       </c>
       <c r="C10">
-        <v>0.00010459372483973636</v>
+        <v>0.011010466452872772</v>
       </c>
       <c r="D10">
-        <v>0.00010330120145183082</v>
+        <v>7.2303475751693417e-09</v>
       </c>
       <c r="E10">
-        <v>0.11903862689797652</v>
+        <v>0.98783383417088932</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0011556921458902697</v>
+        <v>0.97800701304599624</v>
       </c>
       <c r="C11">
-        <v>0.011010466452872772</v>
+        <v>0.018673335353520271</v>
       </c>
       <c r="D11">
-        <v>7.2303475751693417e-09</v>
+        <v>0.0032613192854287934</v>
       </c>
       <c r="E11">
-        <v>0.98783383417088932</v>
+        <v>5.8332315054699231e-05</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.0017687649595271957</v>
+      </c>
+      <c r="C12">
+        <v>0.018039992559384911</v>
+      </c>
+      <c r="D12">
+        <v>0.96975194158080213</v>
+      </c>
+      <c r="E12">
+        <v>0.010439300900285785</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.00034186218586016538</v>
+      </c>
+      <c r="C13">
+        <v>0.008108923678330696</v>
+      </c>
+      <c r="D13">
+        <v>1.2283496321151663e-08</v>
+      </c>
+      <c r="E13">
+        <v>0.99154920185231288</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.97800701304599624</v>
-      </c>
-      <c r="C12">
-        <v>0.018673335353520271</v>
-      </c>
-      <c r="D12">
-        <v>0.0032613192854287934</v>
-      </c>
-      <c r="E12">
-        <v>5.8332315054699231e-05</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.0017687649595271957</v>
-      </c>
-      <c r="C13">
-        <v>0.018039992559384911</v>
-      </c>
-      <c r="D13">
-        <v>0.96975194158080213</v>
-      </c>
-      <c r="E13">
-        <v>0.010439300900285785</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.00034186218586016538</v>
+        <v>0.99413479939186433</v>
       </c>
       <c r="C14">
-        <v>0.008108923678330696</v>
+        <v>0.0045311624590669121</v>
       </c>
       <c r="D14">
-        <v>1.2283496321151663e-08</v>
+        <v>0.0012975558595096684</v>
       </c>
       <c r="E14">
-        <v>0.99154920185231288</v>
+        <v>3.6482289559016745e-05</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>9.8953056680220218e-07</v>
+      </c>
+      <c r="C15">
+        <v>0.0029195984589969709</v>
+      </c>
+      <c r="D15">
+        <v>1.1085820852759392e-06</v>
+      </c>
+      <c r="E15">
+        <v>0.99707830342835102</v>
+      </c>
+      <c r="F15">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.99413479939186433</v>
-      </c>
-      <c r="C15">
-        <v>0.0045311624590669121</v>
-      </c>
-      <c r="D15">
-        <v>0.0012975558595096684</v>
-      </c>
-      <c r="E15">
-        <v>3.6482289559016745e-05</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.98701460444739264</v>
+        <v>0.99203901575436837</v>
       </c>
       <c r="C16">
-        <v>0.010374805305813582</v>
+        <v>0.0039545427706875382</v>
       </c>
       <c r="D16">
-        <v>0.0022221942236138274</v>
+        <v>0.0039365071002852555</v>
       </c>
       <c r="E16">
-        <v>0.00038839602318002295</v>
+        <v>6.9934374659031052e-05</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>9.8953056680220218e-07</v>
+        <v>0.97556674773238083</v>
       </c>
       <c r="C17">
-        <v>0.0029195984589969709</v>
+        <v>0.0090147990081694065</v>
       </c>
       <c r="D17">
-        <v>1.1085820852759392e-06</v>
+        <v>0.015384041472796976</v>
       </c>
       <c r="E17">
-        <v>0.99707830342835102</v>
+        <v>3.4411786652723782e-05</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.99203901575436837</v>
+        <v>0.99927788456983013</v>
       </c>
       <c r="C18">
-        <v>0.0039545427706875382</v>
+        <v>6.0394827117281077e-05</v>
       </c>
       <c r="D18">
-        <v>0.0039365071002852555</v>
+        <v>0.00041446534991885077</v>
       </c>
       <c r="E18">
-        <v>6.9934374659031052e-05</v>
+        <v>0.00024725525313376031</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.97556674773238083</v>
+        <v>0.98942678008255991</v>
       </c>
       <c r="C19">
-        <v>0.0090147990081694065</v>
+        <v>0.0076699924425505678</v>
       </c>
       <c r="D19">
-        <v>0.015384041472796976</v>
+        <v>0.0028148307255461127</v>
       </c>
       <c r="E19">
-        <v>3.4411786652723782e-05</v>
+        <v>8.8396749343409248e-05</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.99927788456983013</v>
+        <v>0.99729772571048947</v>
       </c>
       <c r="C20">
-        <v>6.0394827117281077e-05</v>
+        <v>0.0005578540522462376</v>
       </c>
       <c r="D20">
-        <v>0.00041446534991885077</v>
+        <v>0.00035326790973074011</v>
       </c>
       <c r="E20">
-        <v>0.00024725525313376031</v>
+        <v>0.0017911523275334223</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.98942678008255991</v>
+        <v>0.9184961645745281</v>
       </c>
       <c r="C21">
-        <v>0.0076699924425505678</v>
+        <v>0.00028327213884193068</v>
       </c>
       <c r="D21">
-        <v>0.0028148307255461127</v>
+        <v>0.00028372634551289492</v>
       </c>
       <c r="E21">
-        <v>8.8396749343409248e-05</v>
+        <v>0.080936836941117016</v>
       </c>
       <c r="F21">
         <v>1</v>

--- a/outputs-HGR-r202/test-o__RFN20_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__RFN20_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,9 @@
     <t>even_MAG-GUT15546.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT16567.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2139.fa</t>
   </si>
   <si>
@@ -43,10 +46,16 @@
     <t>even_MAG-GUT43773.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT46037.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48445.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT4942.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT65341.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT65576.fa</t>
@@ -136,7 +145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -152,19 +161,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -192,19 +201,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0017313396069908384</v>
+        <v>0.0011932498560192548</v>
       </c>
       <c r="C3">
-        <v>0.0088841484534312384</v>
+        <v>0.012510594608527938</v>
       </c>
       <c r="D3">
-        <v>0.98181060809553955</v>
+        <v>1.2451571402575098e-08</v>
       </c>
       <c r="E3">
-        <v>0.0075739038440383174</v>
+        <v>0.98629614308388136</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -212,19 +221,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.97107534355509462</v>
+        <v>0.0017313396069908384</v>
       </c>
       <c r="C4">
-        <v>0.0034505173159276046</v>
+        <v>0.0088841484534312384</v>
       </c>
       <c r="D4">
-        <v>1.9751688193205389e-05</v>
+        <v>0.98181060809553955</v>
       </c>
       <c r="E4">
-        <v>0.025454387440784477</v>
+        <v>0.0075739038440383174</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -232,19 +241,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00021350741432114024</v>
+        <v>0.97107534355509462</v>
       </c>
       <c r="C5">
-        <v>0.00017089101047740543</v>
+        <v>0.0034505173159276046</v>
       </c>
       <c r="D5">
-        <v>0.00111110491650656</v>
+        <v>1.9751688193205389e-05</v>
       </c>
       <c r="E5">
-        <v>0.99850449665869501</v>
+        <v>0.025454387440784477</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -252,19 +261,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99413479939186433</v>
+        <v>0.00021350741432114024</v>
       </c>
       <c r="C6">
-        <v>0.0045311624590669121</v>
+        <v>0.00017089101047740543</v>
       </c>
       <c r="D6">
-        <v>0.0012975558595096684</v>
+        <v>0.00111110491650656</v>
       </c>
       <c r="E6">
-        <v>3.6482289559016745e-05</v>
+        <v>0.99850449665869501</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -272,16 +281,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.98701460444739264</v>
+        <v>0.99413479939186433</v>
       </c>
       <c r="C7">
-        <v>0.010374805305813582</v>
+        <v>0.0045311624590669121</v>
       </c>
       <c r="D7">
-        <v>0.0022221942236138274</v>
+        <v>0.0012975558595096684</v>
       </c>
       <c r="E7">
-        <v>0.00038839602318002295</v>
+        <v>3.6482289559016745e-05</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -292,16 +301,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.96591325548154072</v>
+        <v>0.98701460444739264</v>
       </c>
       <c r="C8">
-        <v>0.020858956688278071</v>
+        <v>0.010374805305813582</v>
       </c>
       <c r="D8">
-        <v>0.013216415117169892</v>
+        <v>0.0022221942236138274</v>
       </c>
       <c r="E8">
-        <v>1.1372713011168881e-05</v>
+        <v>0.00038839602318002295</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -312,16 +321,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.88075347817573191</v>
+        <v>0.96591325548154072</v>
       </c>
       <c r="C9">
-        <v>0.00010459372483973636</v>
+        <v>0.020858956688278071</v>
       </c>
       <c r="D9">
-        <v>0.00010330120145183082</v>
+        <v>0.013216415117169892</v>
       </c>
       <c r="E9">
-        <v>0.11903862689797652</v>
+        <v>1.1372713011168881e-05</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -332,16 +341,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.97800701304599624</v>
+        <v>0.88075347817573191</v>
       </c>
       <c r="C10">
-        <v>0.018673335353520271</v>
+        <v>0.00010459372483973636</v>
       </c>
       <c r="D10">
-        <v>0.0032613192854287934</v>
+        <v>0.00010330120145183082</v>
       </c>
       <c r="E10">
-        <v>5.8332315054699231e-05</v>
+        <v>0.11903862689797652</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -352,19 +361,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.0017687649595271957</v>
+        <v>0.0011556921458902697</v>
       </c>
       <c r="C11">
-        <v>0.018039992559384911</v>
+        <v>0.011010466452872772</v>
       </c>
       <c r="D11">
-        <v>0.96975194158080213</v>
+        <v>7.2303475751693417e-09</v>
       </c>
       <c r="E11">
-        <v>0.010439300900285785</v>
+        <v>0.98783383417088932</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -372,16 +381,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99413479939186433</v>
+        <v>0.97800701304599624</v>
       </c>
       <c r="C12">
-        <v>0.0045311624590669121</v>
+        <v>0.018673335353520271</v>
       </c>
       <c r="D12">
-        <v>0.0012975558595096684</v>
+        <v>0.0032613192854287934</v>
       </c>
       <c r="E12">
-        <v>3.6482289559016745e-05</v>
+        <v>5.8332315054699231e-05</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -392,19 +401,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.98701460444739264</v>
+        <v>0.0017687649595271957</v>
       </c>
       <c r="C13">
-        <v>0.010374805305813582</v>
+        <v>0.018039992559384911</v>
       </c>
       <c r="D13">
-        <v>0.0022221942236138274</v>
+        <v>0.96975194158080213</v>
       </c>
       <c r="E13">
-        <v>0.00038839602318002295</v>
+        <v>0.010439300900285785</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -412,16 +421,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.8953056680220218e-07</v>
+        <v>0.00034186218586016538</v>
       </c>
       <c r="C14">
-        <v>0.0029195984589969709</v>
+        <v>0.008108923678330696</v>
       </c>
       <c r="D14">
-        <v>1.1085820852759392e-06</v>
+        <v>1.2283496321151663e-08</v>
       </c>
       <c r="E14">
-        <v>0.99707830342835102</v>
+        <v>0.99154920185231288</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -432,16 +441,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99203901575436837</v>
+        <v>0.99413479939186433</v>
       </c>
       <c r="C15">
-        <v>0.0039545427706875382</v>
+        <v>0.0045311624590669121</v>
       </c>
       <c r="D15">
-        <v>0.0039365071002852555</v>
+        <v>0.0012975558595096684</v>
       </c>
       <c r="E15">
-        <v>6.9934374659031052e-05</v>
+        <v>3.6482289559016745e-05</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -452,16 +461,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.97556674773238083</v>
+        <v>0.98701460444739264</v>
       </c>
       <c r="C16">
-        <v>0.0090147990081694065</v>
+        <v>0.010374805305813582</v>
       </c>
       <c r="D16">
-        <v>0.015384041472796976</v>
+        <v>0.0022221942236138274</v>
       </c>
       <c r="E16">
-        <v>3.4411786652723782e-05</v>
+        <v>0.00038839602318002295</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -472,19 +481,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99927788456983013</v>
+        <v>9.8953056680220218e-07</v>
       </c>
       <c r="C17">
-        <v>6.0394827117281077e-05</v>
+        <v>0.0029195984589969709</v>
       </c>
       <c r="D17">
-        <v>0.00041446534991885077</v>
+        <v>1.1085820852759392e-06</v>
       </c>
       <c r="E17">
-        <v>0.00024725525313376031</v>
+        <v>0.99707830342835102</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -492,16 +501,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.98942678008255991</v>
+        <v>0.99203901575436837</v>
       </c>
       <c r="C18">
-        <v>0.0076699924425505678</v>
+        <v>0.0039545427706875382</v>
       </c>
       <c r="D18">
-        <v>0.0028148307255461127</v>
+        <v>0.0039365071002852555</v>
       </c>
       <c r="E18">
-        <v>8.8396749343409248e-05</v>
+        <v>6.9934374659031052e-05</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -512,16 +521,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99729772571048947</v>
+        <v>0.97556674773238083</v>
       </c>
       <c r="C19">
-        <v>0.0005578540522462376</v>
+        <v>0.0090147990081694065</v>
       </c>
       <c r="D19">
-        <v>0.00035326790973074011</v>
+        <v>0.015384041472796976</v>
       </c>
       <c r="E19">
-        <v>0.0017911523275334223</v>
+        <v>3.4411786652723782e-05</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -532,18 +541,78 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <v>0.99927788456983013</v>
+      </c>
+      <c r="C20">
+        <v>6.0394827117281077e-05</v>
+      </c>
+      <c r="D20">
+        <v>0.00041446534991885077</v>
+      </c>
+      <c r="E20">
+        <v>0.00024725525313376031</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.98942678008255991</v>
+      </c>
+      <c r="C21">
+        <v>0.0076699924425505678</v>
+      </c>
+      <c r="D21">
+        <v>0.0028148307255461127</v>
+      </c>
+      <c r="E21">
+        <v>8.8396749343409248e-05</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.99729772571048947</v>
+      </c>
+      <c r="C22">
+        <v>0.0005578540522462376</v>
+      </c>
+      <c r="D22">
+        <v>0.00035326790973074011</v>
+      </c>
+      <c r="E22">
+        <v>0.0017911523275334223</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>0.9184961645745281</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>0.00028327213884193068</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>0.00028372634551289492</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>0.080936836941117016</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
